--- a/data/income_statement/3digits/total/562_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/562_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>562-Event catering and other food service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>562-Event catering and other food service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>4310716.40146</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>5179059.183410001</v>
+        <v>5179059.18341</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>6363190.102019999</v>
+        <v>6363190.10202</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>7150702.92942</v>
+        <v>7159652.54977</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>8338287.653890001</v>
+        <v>8339732.80442</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>9723100.824440001</v>
+        <v>9737566.893440001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>11479683.64886</v>
+        <v>11560889.61865</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>13201115.29531</v>
+        <v>13404804.391</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>15475209.21002</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>18466799.26033</v>
+        <v>18526236.1619</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>21672646.8661</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>21907154.87301</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>19878740.556</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>3964160.58263</v>
@@ -995,37 +906,42 @@
         <v>4731873.72008</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>5770441.306710001</v>
+        <v>5770441.30671</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>6508640.741529999</v>
+        <v>6517482.76594</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>7594922.976059999</v>
+        <v>7596360.42308</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>8887457.231039999</v>
+        <v>8901863.5239</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>10448725.03102</v>
+        <v>10529296.26508</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>12152886.46412</v>
+        <v>12355390.75895</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>14345025.02309</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>16926607.22352</v>
+        <v>16985894.98246</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>19548302.04347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>19786706.31355</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>18846093.084</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>298147.09302</v>
@@ -1034,10 +950,10 @@
         <v>377056.89975</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>484119.33715</v>
+        <v>484119.3371499999</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>533183.33446</v>
+        <v>533290.1466300001</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>615277.86433</v>
@@ -1046,25 +962,30 @@
         <v>738759.08173</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>907208.8380600001</v>
+        <v>907220.8906</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>886411.4760599999</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>948097.8932</v>
+        <v>948097.8931999999</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>1283782.72219</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1764811.40405</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1758943.27843</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>698098.749</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>48408.72581</v>
@@ -1076,46 +997,51 @@
         <v>108629.45816</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>108878.85343</v>
+        <v>108879.6372</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>128086.8135</v>
+        <v>128094.51701</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>96884.51166999999</v>
+        <v>96944.28781000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>123749.77978</v>
+        <v>124372.46297</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>161817.35513</v>
+        <v>163002.15599</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>182086.29373</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>256409.31462</v>
+        <v>256558.45725</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>359533.4185800001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>361505.28103</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>334548.723</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>56893.13213000001</v>
+        <v>56893.13213</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>52864.53385</v>
+        <v>52864.53384999999</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>71497.6679</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>99276.25791000001</v>
+        <v>99286.37866000002</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>63672.94218999999</v>
@@ -1124,25 +1050,30 @@
         <v>96438.5822</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>127745.66707</v>
+        <v>127814.23154</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>164233.86504</v>
+        <v>164352.77018</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>184267.79469</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>173139.18081</v>
+        <v>173174.05499</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>244521.73627</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>245468.50599</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>198686.802</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>24865.54104</v>
@@ -1154,7 +1085,7 @@
         <v>37882.13812</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>46733.33067</v>
+        <v>46743.45142</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>50780.77309</v>
@@ -1163,25 +1094,30 @@
         <v>75197.45733</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>108563.87314</v>
+        <v>108569.93921</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>147777.01784</v>
+        <v>147893.79631</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>144727.22224</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>145684.80045</v>
+        <v>145715.97093</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>166980.39365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>167604.5801</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>174555.333</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>30819.55017</v>
@@ -1202,10 +1138,10 @@
         <v>17392.71911</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>14102.37102</v>
+        <v>14164.86942</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>10641.53601</v>
+        <v>10643.66268</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>33340.90994</v>
@@ -1214,13 +1150,18 @@
         <v>18645.25033</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>65705.80684</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>65720.28036</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>15264.812</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1208.04092</v>
@@ -1241,64 +1182,74 @@
         <v>3848.40576</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>5079.422910000001</v>
+        <v>5079.42291</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>5815.311189999999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>6199.66251</v>
+        <v>6199.662510000001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>8809.130030000002</v>
+        <v>8812.83373</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>11835.53578</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>12143.64553</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>8866.656999999999</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>4253823.26933</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>5126194.64956</v>
+        <v>5126194.649560001</v>
       </c>
       <c r="E13" s="47" t="n">
         <v>6291692.43412</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>7051426.67151</v>
+        <v>7060366.17111</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>8274614.7117</v>
+        <v>8276059.862229999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>9626662.242240001</v>
+        <v>9641128.311240001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>11351937.98179</v>
+        <v>11433075.38711</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>13036881.43027</v>
+        <v>13240451.62082</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>15290941.41533</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>18293660.07952</v>
+        <v>18353062.10691</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>21428125.12983</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>21661686.36702</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>19680053.754</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>3628904.73224</v>
@@ -1310,34 +1261,39 @@
         <v>5474567.28925</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>6129073.63266</v>
+        <v>6136929.81451</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>7185893.5728</v>
+        <v>7187331.50453</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>8370014.49774</v>
+        <v>8381799.0178</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>9820085.77087</v>
+        <v>9889059.19918</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>11202851.10923</v>
+        <v>11386951.75798</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>13280300.35633</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>16094141.50699</v>
+        <v>16147818.56181</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>18789530.42302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>18988985.25492</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>17696957.462</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1722315.21827</v>
@@ -1349,34 +1305,39 @@
         <v>2528898.58036</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>3066816.61067</v>
+        <v>3073972.40324</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>3660224.09287</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>4268478.891290001</v>
+        <v>4277423.51869</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>5074215.365879999</v>
+        <v>5105132.62833</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>5436529.042090001</v>
+        <v>5441412.83534</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>6374421.07242</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>7824014.539190001</v>
+        <v>7838116.797850001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>9122936.62142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>9187572.052860001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>7923516.516</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>506159.82747</v>
@@ -1388,34 +1349,39 @@
         <v>651600.7689200001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>761952.09585</v>
+        <v>762543.31006</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>936763.87175</v>
+        <v>936820.1413199999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1038197.16269</v>
+        <v>1039292.25823</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1261870.10154</v>
+        <v>1281611.07764</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1489931.84957</v>
+        <v>1490707.8026</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1677076.77968</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2161075.95045</v>
+        <v>2182666.33096</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2389233.09597</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2434568.19963</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2472679.092</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1383690.84906</v>
@@ -1427,34 +1393,39 @@
         <v>2285671.95015</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2296631.26407</v>
+        <v>2296740.43914</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2585768.05414</v>
+        <v>2587149.7163</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3048644.22348</v>
+        <v>3050163.25789</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3468219.0572</v>
+        <v>3486531.81105</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>4245455.09804</v>
+        <v>4423896.000510001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>5194393.815230001</v>
+        <v>5194393.81523</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>6076276.548460001</v>
+        <v>6094260.96411</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>7235154.26537</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>7324101.75944</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>7244819.725</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>16738.83744</v>
@@ -1472,10 +1443,10 @@
         <v>3137.55404</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>14694.22028</v>
+        <v>14919.98299</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>15781.24625</v>
+        <v>15783.68216</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>30935.11953</v>
@@ -1487,94 +1458,109 @@
         <v>32774.46889</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>42206.44026</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>42743.24299</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>55942.129</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>624918.5370899999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>691972.8578</v>
+        <v>691972.8578000001</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>817125.14487</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>922353.0388500001</v>
+        <v>923436.3566000001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1088721.1389</v>
+        <v>1088728.3577</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1256647.7445</v>
+        <v>1259329.29344</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1531852.21092</v>
+        <v>1544016.18793</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1834030.32104</v>
+        <v>1853499.86284</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2010641.059</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2199518.57253</v>
+        <v>2205243.5451</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2638594.70681</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2672701.1121</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1983096.292</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>475832.38105</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>546153.02912</v>
+        <v>546153.0291200001</v>
       </c>
       <c r="E20" s="47" t="n">
         <v>701021.31228</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>791131.4691699999</v>
+        <v>791970.16672</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>927410.9398600002</v>
+        <v>927429.18753</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1025241.92949</v>
+        <v>1028236.01388</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1205048.19788</v>
+        <v>1215988.93297</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1399730.20256</v>
+        <v>1420693.67193</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1493019.1046</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1757077.94743</v>
+        <v>1763403.55802</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2099417.4499</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2126337.73711</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1728738.749</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>633.5979000000001</v>
+        <v>633.5979</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>924.59504</v>
@@ -1583,7 +1569,7 @@
         <v>1444.13923</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>643.0207899999999</v>
+        <v>643.02079</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>1106.59367</v>
@@ -1601,19 +1587,24 @@
         <v>4159.89384</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>2450.30213</v>
+        <v>2574.1933</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>2512.574360000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>2638.67216</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>3837.342</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>97366.32427000001</v>
+        <v>97366.32427</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>108285.21374</v>
@@ -1622,34 +1613,39 @@
         <v>159533.74969</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>170666.35382</v>
+        <v>170754.86314</v>
       </c>
       <c r="G22" s="48" t="n">
         <v>200003.69455</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>228153.60161</v>
+        <v>228482.81168</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>261210.64618</v>
+        <v>264432.63766</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>321818.77347</v>
+        <v>322658.7039199999</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>363716.04247</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>408832.18353</v>
+        <v>409187.5249199999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>441318.04976</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>442965.81818</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>370624.838</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>377832.45888</v>
@@ -1661,34 +1657,39 @@
         <v>540043.42336</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>619822.0945600001</v>
+        <v>620572.28279</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>726300.6516400001</v>
+        <v>726318.8993099999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>795311.1362700001</v>
+        <v>797976.0105900001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>942258.1724500001</v>
+        <v>949976.91606</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1073588.23487</v>
+        <v>1093711.77379</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1125143.16829</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1345795.46177</v>
+        <v>1351641.8398</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1655586.82578</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1680733.24677</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1354276.569</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>149086.15604</v>
@@ -1700,34 +1701,39 @@
         <v>116103.83259</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>131221.56968</v>
+        <v>131466.18988</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>161310.19904</v>
+        <v>161299.17017</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>231405.81501</v>
+        <v>231093.27956</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>326804.01304</v>
+        <v>328027.25496</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>434300.11848</v>
+        <v>432806.1909100001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>517621.9544</v>
+        <v>517621.9543999999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>442440.6250999999</v>
+        <v>441839.98708</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>539177.2569100001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>546363.37499</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>254357.543</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>82767.74653</v>
@@ -1739,34 +1745,39 @@
         <v>175000.60806</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>171075.60455</v>
+        <v>171076.76598</v>
       </c>
       <c r="G25" s="47" t="n">
         <v>203405.33484</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>118788.9061</v>
+        <v>118789.59783</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>193585.81461</v>
+        <v>194214.6959</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>190764.13214</v>
+        <v>196159.18414</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>278527.40722</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>326127.20604</v>
+        <v>326282.53775</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>314564.03918</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>314999.45949</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>318219.555</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>4197.34457</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>45206.80211</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>4477.168</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1385.01862</v>
@@ -1835,16 +1851,21 @@
         <v>2116.82734</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>4587.46142</v>
+        <v>4587.461419999999</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>6712.55408</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>687.732</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>12314.20018</v>
@@ -1862,28 +1883,33 @@
         <v>13249.53984</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>15792.30962</v>
+        <v>15792.93885</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>15085.42026</v>
+        <v>15585.28466</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>17669.64205</v>
+        <v>17968.38774</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>32962.67525</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>58315.41045</v>
+        <v>58415.02827999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>72327.72266999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>72648.55894</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>62577.364</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>513.53346</v>
@@ -1892,10 +1918,10 @@
         <v>581.19001</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>728.7521599999999</v>
+        <v>728.75216</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>468.15532</v>
+        <v>470.0847</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>235.69232</v>
@@ -1904,10 +1930,10 @@
         <v>222.36045</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>14230.11979</v>
+        <v>14266.14529</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>266.9876800000001</v>
+        <v>266.98768</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>504.54412</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>164.37408</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>644.338</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1247.8309</v>
@@ -1946,10 +1977,10 @@
         <v>1543.05983</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>7547.6054</v>
+        <v>7547.605399999999</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>4208.97819</v>
+        <v>4208.978190000001</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>4720.66715</v>
@@ -1957,14 +1988,19 @@
       <c r="M30" s="48" t="n">
         <v>10703.05863</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>8248.925999999999</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>358.9114400000001</v>
+        <v>358.91144</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>1067.62877</v>
@@ -1985,7 +2021,7 @@
         <v>1063.27161</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>552.84669</v>
+        <v>556.0146900000001</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>1006.24653</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>4201.65809</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>2506.084</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>11858.51382</v>
@@ -2018,13 +2059,13 @@
         <v>57732.52081000001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>39566.97015</v>
+        <v>39566.97015000001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>102339.19805</v>
+        <v>102350.7805</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>73458.26360000001</v>
+        <v>78251.19139000001</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>131847.41612</v>
@@ -2033,13 +2074,18 @@
         <v>156895.41268</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>74891.12534999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>74891.19575</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>133868.722</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>2.449</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1753.98334</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>977.588</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>135.9941</v>
@@ -2113,14 +2164,19 @@
       <c r="M34" s="48" t="n">
         <v>114.70083</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>50753.95044000001</v>
+        <v>50753.95044</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>75997.99002000001</v>
@@ -2129,34 +2185,39 @@
         <v>115297.99929</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>114292.87946</v>
+        <v>114292.11151</v>
       </c>
       <c r="G35" s="48" t="n">
         <v>115062.50235</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>56204.48484999999</v>
+        <v>56204.54735</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>44823.201</v>
+        <v>44904.60994</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>72104.18186</v>
+        <v>72404.39237999999</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>71132.0897</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>71145.4476</v>
+        <v>71201.16148000001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>98488.06</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>98602.57363999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>104218.053</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>42332.17434</v>
@@ -2165,37 +2226,42 @@
         <v>41418.4282</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>95478.82096</v>
+        <v>95478.82096000001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>75909.14727999999</v>
+        <v>75909.14728</v>
       </c>
       <c r="G36" s="47" t="n">
         <v>123703.32128</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>104795.79268</v>
+        <v>104846.31032</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>168672.54936</v>
+        <v>169055.03476</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>115575.7109</v>
+        <v>121282.08831</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>170119.24129</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>225809.8582</v>
+        <v>225816.08182</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>142146.09986</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>142455.30115</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>260829.65</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>9669.895709999999</v>
@@ -2213,7 +2279,7 @@
         <v>16220.20266</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>20655.05037</v>
+        <v>20699.18659</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>20680.75176</v>
@@ -2222,19 +2288,24 @@
         <v>6768.164289999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>6455.742059999999</v>
+        <v>6455.74206</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>6378.834009999999</v>
+        <v>6384.771320000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>9244.10001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>9254.071089999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>8138.312</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>10440.9661</v>
@@ -2258,7 +2329,7 @@
         <v>12906.92002</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>13537.78266</v>
+        <v>14376.79966</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>16751.78113</v>
@@ -2267,13 +2338,18 @@
         <v>25296.45869</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>36869.15861</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>36907.34680000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>96962.06299999999</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>66.01433999999999</v>
@@ -2288,7 +2364,7 @@
         <v>132.85736</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>34.92082</v>
+        <v>34.92082000000001</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>182.87113</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>353.16325</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>322.741</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>12123.483</v>
@@ -2333,10 +2414,10 @@
         <v>39853.61417</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>120922.22368</v>
+        <v>120930.12632</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>74904.98643</v>
+        <v>79764.49473999999</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>127565.11489</v>
@@ -2345,13 +2426,18 @@
         <v>177116.73465</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>75115.72529</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>75116.47125</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>126968.218</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>17.16034</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1250.29657</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1054.088</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.11973</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>875.622</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>10014.53512</v>
@@ -2438,7 +2534,7 @@
         <v>13294.8141</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>44166.08565</v>
+        <v>44166.08565000001</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>26331.58952</v>
@@ -2447,28 +2543,33 @@
         <v>36032.75351</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>31525.0426</v>
+        <v>31531.42402</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>13894.15762</v>
+        <v>14268.74038</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>20320.11533</v>
+        <v>20327.96743</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>19088.52954</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>15158.56455</v>
+        <v>15158.85086</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>19313.65613</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>19573.95219</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>26508.606</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>45262.48165</v>
@@ -2477,37 +2578,42 @@
         <v>48151.25824</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>53616.36969</v>
+        <v>53616.36969000001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>74996.9958</v>
+        <v>75141.89340999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>64802.07840000001</v>
+        <v>64822.58129000001</v>
       </c>
       <c r="H44" s="47" t="n">
         <v>85007.41829999999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>124179.37371</v>
+        <v>125414.68952</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>139516.03128</v>
+        <v>140360.21016</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>157478.34151</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>226521.7549</v>
+        <v>226545.65302</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>265767.48551</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>267742.32508</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>216133.011</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>43974.58009999999</v>
@@ -2516,37 +2622,42 @@
         <v>46882.30318</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>51957.16001000001</v>
+        <v>51957.16001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>72222.31078999999</v>
+        <v>72367.2084</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>63647.42845</v>
+        <v>63667.93134</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>80562.96739000002</v>
+        <v>80562.96739000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>118029.15607</v>
+        <v>119264.47188</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>136308.16905</v>
+        <v>137152.34793</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>153789.47398</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>220452.90753</v>
+        <v>220476.80565</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>256391.94273</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>258366.7823</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>208261.875</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>1287.90155</v>
@@ -2567,7 +2678,7 @@
         <v>4444.45091</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>6150.217640000001</v>
+        <v>6150.217639999999</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>3207.86223</v>
@@ -2579,13 +2690,18 @@
         <v>6068.84737</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>9375.54278</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>9375.542780000002</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>7871.136</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>144259.24658</v>
@@ -2597,34 +2713,39 @@
         <v>142009.25</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>151391.03115</v>
+        <v>151491.91517</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>176210.1342</v>
+        <v>176178.60244</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>160391.51013</v>
+        <v>160029.14877</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>227537.90458</v>
+        <v>227772.22658</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>369972.50844</v>
+        <v>367323.0765800001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>468551.77882</v>
+        <v>468551.7788200001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>316236.2180399999</v>
+        <v>315760.78999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>445827.71072</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>451165.20825</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>95614.43700000001</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>13942.81411</v>
@@ -2636,34 +2757,39 @@
         <v>27705.96119</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>33606.03326</v>
+        <v>33619.72854</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>35482.17909000001</v>
+        <v>35502.54773000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>64221.60855</v>
+        <v>64261.23644</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>76575.65906000001</v>
+        <v>76683.66935</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>110106.49863</v>
+        <v>110258.86269</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>90929.55137</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>109186.55362</v>
+        <v>109411.92118</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>143439.61802</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>144372.49014</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>142706.407</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>360.52367</v>
@@ -2684,10 +2810,10 @@
         <v>457.4951899999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1120.83681</v>
+        <v>1148.5338</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>12301.66866</v>
+        <v>12303.29202</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>1154.32779</v>
@@ -2696,13 +2822,18 @@
         <v>1207.0715</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>4812.27012</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>4822.314270000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2505.248</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>13582.29044</v>
@@ -2714,34 +2845,39 @@
         <v>27018.77633</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>33159.76845</v>
+        <v>33173.46373</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>34473.55845</v>
+        <v>34493.92709</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>63764.11336</v>
+        <v>63803.74125</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>75454.82225</v>
+        <v>75535.13554999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>97804.82996999999</v>
+        <v>97955.57066999999</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>89775.22358000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>107979.48212</v>
+        <v>108204.84968</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>138627.3479</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>139550.17587</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>140201.159</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>23365.56769</v>
@@ -2753,34 +2889,39 @@
         <v>168436.38978</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>29800.27224</v>
+        <v>29865.20368</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>32998.50575</v>
+        <v>33034.39219000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>68001.37625999999</v>
+        <v>68224.49784</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>61161.54577</v>
+        <v>61728.40887</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>135894.36458</v>
+        <v>136260.24205</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>78415.48702</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>148131.40083</v>
+        <v>148260.15641</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>116214.42991</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>117257.08821</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>115810.557</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>952.52426</v>
@@ -2798,13 +2939,13 @@
         <v>150.31017</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>265.9670599999999</v>
+        <v>265.96706</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>350.30406</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>283.49183</v>
+        <v>283.4918299999999</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>377.7659</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>1271.74181</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>5893.39</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1400.84396</v>
@@ -2831,13 +2977,13 @@
         <v>3854.08605</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1530.3766</v>
+        <v>1531.47139</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1635.65569</v>
+        <v>1671.54213</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1994.36056</v>
+        <v>1994.77106</v>
       </c>
       <c r="I53" s="48" t="n">
         <v>7179.62875</v>
@@ -2849,16 +2995,21 @@
         <v>3571.16583</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>5664.67477</v>
+        <v>5664.674770000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>5509.77135</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>5513.27472</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>6839.394</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>21012.19947</v>
@@ -2870,34 +3021,39 @@
         <v>163907.45977</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>27885.32114</v>
+        <v>27949.15779</v>
       </c>
       <c r="G54" s="48" t="n">
         <v>31212.53989</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>65741.04863999999</v>
+        <v>65963.75972</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>53631.61295999999</v>
+        <v>54198.47605999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>127662.93115</v>
+        <v>128028.80862</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>74466.55529</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>142179.92239</v>
+        <v>142308.67797</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>109432.91675</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>110472.07168</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>103077.773</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>134836.493</v>
@@ -2906,37 +3062,42 @@
         <v>179865.77291</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1278.821409999998</v>
+        <v>1278.821410000004</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>155196.79217</v>
+        <v>155246.44003</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>178693.80754</v>
+        <v>178646.75798</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>156611.74242</v>
+        <v>156065.88737</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>242952.01787</v>
+        <v>242727.48706</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>344184.64249</v>
+        <v>341321.69722</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>481065.8431700001</v>
+        <v>481065.84317</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>277291.37083</v>
+        <v>276912.55476</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>473052.89883</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>478280.61018</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>122510.287</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>31446.22093</v>
@@ -2948,34 +3109,39 @@
         <v>47082.50549</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>46593.08507</v>
+        <v>46603.34449999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>47821.93699</v>
+        <v>47846.50928</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>55449.46265</v>
+        <v>55483.51679</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>68689.86709</v>
+        <v>68929.22526000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>89633.44598</v>
+        <v>89641.46315000001</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>111655.8932</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>109283.89175</v>
+        <v>109515.54497</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>135271.52008</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>137177.15057</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>88066.523</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>103390.27207</v>
@@ -2987,31 +3153,34 @@
         <v>-45803.68408</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>108603.7071</v>
+        <v>108643.09553</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>130871.87055</v>
+        <v>130800.2487</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>101162.27977</v>
+        <v>100582.37058</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>174262.15078</v>
+        <v>173798.2618</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>254551.19651</v>
+        <v>251680.23407</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>369409.9499699999</v>
+        <v>369409.94997</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>168007.47908</v>
+        <v>167397.00979</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>337781.37875</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>341103.45961</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>34443.764</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>2748</v>
@@ -3041,31 +3213,34 @@
         <v>2866</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2866</v>
+        <v>2868</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2852</v>
+        <v>2855</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2909</v>
+        <v>2917</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2965</v>
+        <v>3000</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>3036</v>
+        <v>3060</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>3208</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3303</v>
+        <v>3424</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3343</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3540</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>